--- a/dataCase/case_1.xlsx
+++ b/dataCase/case_1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -370,6 +370,35 @@
   </si>
   <si>
     <t>x-www-form-urlencoded</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -784,19 +813,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.140625" style="14"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="11" max="12" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -830,26 +859,29 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -877,16 +909,17 @@
       <c r="K2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="243" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="243" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -916,16 +949,17 @@
       <c r="K3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -948,18 +982,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="23.85546875" customWidth="1"/>
+    <col min="11" max="12" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -993,26 +1027,29 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1038,12 +1075,13 @@
       <c r="K2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="L2" s="10"/>
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1071,12 +1109,13 @@
       <c r="K3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="L3" s="10"/>
+      <c r="Q3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1102,12 +1141,13 @@
       <c r="K4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="L4" s="10"/>
+      <c r="Q4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1135,10 +1175,11 @@
       <c r="K5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="L5" s="11"/>
+      <c r="Q5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1160,18 +1201,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="11" max="12" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1205,26 +1246,29 @@
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1250,12 +1294,13 @@
       <c r="K2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="L2" s="11"/>
+      <c r="Q2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="228.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="228.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1283,10 +1328,11 @@
       <c r="K3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="L3" s="10"/>
+      <c r="Q3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
